--- a/examplePoj/excel/cfg_hero_skill.xlsx
+++ b/examplePoj/excel/cfg_hero_skill.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11910" activeTab="2"/>
+    <workbookView windowHeight="17800"/>
   </bookViews>
   <sheets>
     <sheet name="output_cfg_hero_skill" sheetId="3" r:id="rId1"/>
     <sheet name="output_cfg_hero_skill_eff" sheetId="4" r:id="rId2"/>
     <sheet name="output_cfg_hero_skill_buff" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -786,12 +799,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -823,24 +836,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -855,7 +853,100 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,97 +960,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1012,7 +1025,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,49 +1145,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,97 +1169,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1192,7 +1193,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,32 +1219,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1255,16 +1253,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1279,6 +1277,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1308,148 +1321,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
@@ -1500,52 +1513,52 @@
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 28" xfId="49"/>
@@ -1845,27 +1858,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N70"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="I10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1"/>
+      <selection pane="bottomRight" activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="10.4" customWidth="1"/>
     <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="34.875" customWidth="1"/>
+    <col min="5" max="5" width="34.8727272727273" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
-    <col min="7" max="7" width="25.875" customWidth="1"/>
+    <col min="7" max="7" width="25.8727272727273" customWidth="1"/>
     <col min="8" max="9" width="23" customWidth="1"/>
-    <col min="10" max="10" width="18.75" customWidth="1"/>
-    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="18.7545454545455" customWidth="1"/>
+    <col min="11" max="11" width="13.6272727272727" customWidth="1"/>
     <col min="12" max="12" width="50.5" customWidth="1"/>
     <col min="13" max="14" width="23" customWidth="1"/>
   </cols>
@@ -2002,56 +2015,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="8">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="8">
-        <v>100</v>
-      </c>
-      <c r="N4" s="8">
-        <v>0</v>
-      </c>
-    </row>
     <row r="5" spans="1:14">
       <c r="A5" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5" s="8">
         <v>0</v>
@@ -2063,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -2078,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M5" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N5" s="8">
         <v>0</v>
@@ -2092,10 +2061,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="8">
         <v>0</v>
@@ -2125,10 +2094,10 @@
         <v>1</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M6" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N6" s="8">
         <v>0</v>
@@ -2136,22 +2105,22 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -2169,10 +2138,10 @@
         <v>1</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="8">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="N7" s="8">
         <v>0</v>
@@ -2180,22 +2149,22 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G8" s="8">
         <v>0</v>
@@ -2210,10 +2179,10 @@
         <v>0</v>
       </c>
       <c r="K8" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M8" s="8">
         <v>0</v>
@@ -2224,13 +2193,13 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>38</v>
@@ -2239,7 +2208,7 @@
         <v>43</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="G9" s="8">
         <v>0</v>
@@ -2257,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M9" s="8">
         <v>0</v>
@@ -2268,28 +2237,28 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="8">
-        <v>7</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>49</v>
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="I10" s="8">
         <v>0</v>
@@ -2301,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="M10" s="8">
         <v>0</v>
@@ -2312,28 +2281,28 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
+        <v>53</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>54</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I11" s="8">
         <v>0</v>
@@ -2345,7 +2314,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="M11" s="8">
         <v>0</v>
@@ -2356,13 +2325,13 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>38</v>
@@ -2371,7 +2340,7 @@
         <v>43</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G12" s="8">
         <v>0</v>
@@ -2389,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M12" s="8">
         <v>0</v>
@@ -2400,13 +2369,13 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>38</v>
@@ -2415,7 +2384,7 @@
         <v>43</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G13" s="8">
         <v>0</v>
@@ -2433,7 +2402,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="M13" s="8">
         <v>0</v>
@@ -2444,13 +2413,13 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="8">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>38</v>
@@ -2459,92 +2428,92 @@
         <v>43</v>
       </c>
       <c r="F14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="J14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="8">
+        <v>11</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8" t="s">
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I15" s="8">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8">
+        <v>0</v>
+      </c>
+      <c r="K15" s="8">
+        <v>0</v>
+      </c>
+      <c r="L15" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="M14" s="8">
-        <v>0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:14">
-      <c r="A15" s="10">
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:14">
+      <c r="A16" s="10">
         <v>1004</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B16" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="11">
-        <v>0</v>
-      </c>
-      <c r="N15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="10">
-        <v>2000</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>32</v>
@@ -2565,7 +2534,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M16" s="11">
         <v>0</v>
@@ -2576,16 +2545,16 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="10">
-        <v>1003</v>
+        <v>2000</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>43</v>
@@ -2597,89 +2566,89 @@
         <v>0</v>
       </c>
       <c r="H17" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="10">
+        <v>1003</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
-      </c>
-      <c r="L17" s="11" t="s">
+      <c r="I18" s="11">
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0</v>
+      </c>
+      <c r="K18" s="11">
+        <v>0</v>
+      </c>
+      <c r="L18" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="M17" s="11">
-        <v>0</v>
-      </c>
-      <c r="N17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="6">
-        <v>20001</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="6">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G19" s="6">
         <v>0</v>
@@ -2697,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M19" s="6">
         <v>0</v>
@@ -2708,10 +2677,10 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="6">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>81</v>
@@ -2723,7 +2692,7 @@
         <v>52</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G20" s="6">
         <v>0</v>
@@ -2741,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M20" s="6">
         <v>0</v>
@@ -2752,22 +2721,22 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="6">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
@@ -2785,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M21" s="6">
         <v>0</v>
@@ -2796,22 +2765,22 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="6">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G22" s="6">
         <v>0</v>
@@ -2829,7 +2798,7 @@
         <v>0</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="M22" s="6">
         <v>0</v>
@@ -2840,119 +2809,119 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="6">
+        <v>20005</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M23" s="6">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="6">
         <v>20006</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
         <v>1000</v>
       </c>
-      <c r="K23" s="6">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6" t="s">
+      <c r="K24" s="6">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="M23" s="6">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="5">
-        <v>20007</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
-      <c r="N24" s="3">
+      <c r="M24" s="6">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="5">
-        <v>20008</v>
+        <v>20007</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G25" s="3">
-        <v>0</v>
+        <v>98</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I25" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="J25" s="3">
         <v>0</v>
@@ -2961,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M25" s="3">
         <v>0</v>
@@ -2972,31 +2941,31 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="5">
-        <v>20009</v>
+        <v>20008</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>99</v>
+        <v>104</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="I26" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
@@ -3005,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
@@ -3016,10 +2985,10 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="5">
-        <v>20010</v>
+        <v>20009</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>50</v>
@@ -3031,7 +3000,7 @@
         <v>43</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>99</v>
@@ -3049,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
@@ -3060,28 +3029,28 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="5">
-        <v>20011</v>
+        <v>20010</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>97</v>
+        <v>51</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>99</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="I28" s="3">
         <v>500</v>
@@ -3093,21 +3062,21 @@
         <v>0</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="M28" s="12">
-        <v>0</v>
-      </c>
-      <c r="N28" s="12">
+        <v>110</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="5">
-        <v>20012</v>
+        <v>20011</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>50</v>
@@ -3119,16 +3088,16 @@
         <v>43</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>112</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
@@ -3137,21 +3106,21 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3">
+        <v>114</v>
+      </c>
+      <c r="M29" s="12">
+        <v>0</v>
+      </c>
+      <c r="N29" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="5">
-        <v>20013</v>
+        <v>20012</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>50</v>
@@ -3163,25 +3132,25 @@
         <v>43</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G30" s="3">
         <v>0</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I30" s="12">
-        <v>0</v>
-      </c>
-      <c r="J30" s="12">
-        <v>0</v>
-      </c>
-      <c r="K30" s="12">
-        <v>0</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>120</v>
+      <c r="H30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="M30" s="3">
         <v>0</v>
@@ -3192,110 +3161,110 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="5">
-        <v>20014</v>
+        <v>20013</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>43</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0</v>
+      </c>
+      <c r="J31" s="12">
+        <v>0</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0</v>
+      </c>
+      <c r="L31" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="5">
+        <v>20014</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G31" s="3">
-        <v>0</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I31" s="3">
-        <v>0</v>
-      </c>
-      <c r="J31" s="3">
-        <v>0</v>
-      </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3" t="s">
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="6">
-        <v>20015</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="6">
-        <v>0</v>
-      </c>
-      <c r="J32" s="6">
-        <v>0</v>
-      </c>
-      <c r="K32" s="6">
-        <v>0</v>
-      </c>
-      <c r="L32" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="6">
-        <v>20016</v>
+        <v>20015</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
@@ -3313,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M33" s="6">
         <v>0</v>
@@ -3324,10 +3293,10 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="6">
-        <v>20017</v>
+        <v>20016</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>50</v>
@@ -3336,10 +3305,10 @@
         <v>69</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
@@ -3357,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M34" s="6">
         <v>0</v>
@@ -3368,22 +3337,22 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="6">
-        <v>20018</v>
+        <v>20017</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>103</v>
+        <v>50</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="E35" s="6" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G35" s="6">
         <v>0</v>
@@ -3401,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="M35" s="6">
         <v>0</v>
@@ -3412,22 +3381,22 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="6">
-        <v>20019</v>
+        <v>20018</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G36" s="6">
         <v>0</v>
@@ -3445,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M36" s="6">
         <v>0</v>
@@ -3456,98 +3425,98 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="6">
+        <v>20019</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="6">
         <v>20020</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D38" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F38" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
-        <v>0</v>
-      </c>
-      <c r="L37" s="6" t="s">
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="M37" s="6">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38">
-        <v>2003</v>
-      </c>
-      <c r="B38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-      <c r="D38" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38" t="s">
-        <v>76</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="B39" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="C39" t="s">
         <v>74</v>
@@ -3577,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -3588,16 +3557,16 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="C40" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="E40" t="s">
         <v>43</v>
@@ -3621,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="L40" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -3632,13 +3601,13 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="B41" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
         <v>38</v>
@@ -3665,7 +3634,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="M41">
         <v>0</v>
@@ -3676,10 +3645,10 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="B42" t="s">
-        <v>84</v>
+        <v>144</v>
       </c>
       <c r="C42" t="s">
         <v>50</v>
@@ -3709,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="M42">
         <v>0</v>
@@ -3720,10 +3689,10 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B43" t="s">
-        <v>146</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -3753,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="M43">
         <v>0</v>
@@ -3764,10 +3733,10 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>146</v>
       </c>
       <c r="C44" t="s">
         <v>50</v>
@@ -3797,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="s">
-        <v>147</v>
+        <v>86</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -3808,10 +3777,10 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s">
         <v>50</v>
@@ -3841,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="s">
-        <v>92</v>
+        <v>147</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -3852,10 +3821,10 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
         <v>50</v>
@@ -3885,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -3896,10 +3865,10 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
@@ -3929,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="L47" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M47">
         <v>0</v>
@@ -3940,10 +3909,10 @@
     </row>
     <row r="48" spans="1:14">
       <c r="A48">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
         <v>50</v>
@@ -3973,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="L48" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M48">
         <v>0</v>
@@ -3984,10 +3953,10 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="C49" t="s">
         <v>50</v>
@@ -4017,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="L49" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -4028,10 +3997,10 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="C50" t="s">
         <v>50</v>
@@ -4061,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="L50" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="M50">
         <v>0</v>
@@ -4072,10 +4041,10 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B51" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="C51" t="s">
         <v>50</v>
@@ -4105,7 +4074,7 @@
         <v>0</v>
       </c>
       <c r="L51" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M51">
         <v>0</v>
@@ -4116,10 +4085,10 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="C52" t="s">
         <v>50</v>
@@ -4149,7 +4118,7 @@
         <v>0</v>
       </c>
       <c r="L52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="M52">
         <v>0</v>
@@ -4160,10 +4129,10 @@
     </row>
     <row r="53" spans="1:14">
       <c r="A53">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C53" t="s">
         <v>50</v>
@@ -4193,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="L53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M53">
         <v>0</v>
@@ -4204,10 +4173,10 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C54" t="s">
         <v>50</v>
@@ -4237,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="L54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -4248,10 +4217,10 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C55" t="s">
         <v>50</v>
@@ -4281,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="L55" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M55">
         <v>0</v>
@@ -4292,10 +4261,10 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C56" t="s">
         <v>50</v>
@@ -4325,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="L56" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M56">
         <v>0</v>
@@ -4336,10 +4305,10 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B57" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C57" t="s">
         <v>50</v>
@@ -4369,7 +4338,7 @@
         <v>0</v>
       </c>
       <c r="L57" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M57">
         <v>0</v>
@@ -4380,10 +4349,10 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
@@ -4413,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="L58" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="M58">
         <v>0</v>
@@ -4424,10 +4393,10 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="B59" t="s">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
         <v>50</v>
@@ -4457,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="L59" t="s">
-        <v>70</v>
+        <v>123</v>
       </c>
       <c r="M59">
         <v>0</v>
@@ -4468,10 +4437,10 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
         <v>50</v>
@@ -4501,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="L60" t="s">
-        <v>162</v>
+        <v>70</v>
       </c>
       <c r="M60">
         <v>0</v>
@@ -4512,10 +4481,10 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>49</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
@@ -4545,7 +4514,7 @@
         <v>0</v>
       </c>
       <c r="L61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M61">
         <v>0</v>
@@ -4556,10 +4525,10 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="B62" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="C62" t="s">
         <v>50</v>
@@ -4589,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="L62" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M62">
         <v>0</v>
@@ -4600,10 +4569,10 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="B63" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="C63" t="s">
         <v>50</v>
@@ -4633,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="L63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M63">
         <v>0</v>
@@ -4644,10 +4613,10 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64">
-        <v>2029</v>
+        <v>2028</v>
       </c>
       <c r="B64" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="C64" t="s">
         <v>50</v>
@@ -4677,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="L64" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M64">
         <v>0</v>
@@ -4688,10 +4657,10 @@
     </row>
     <row r="65" spans="1:14">
       <c r="A65">
-        <v>2030</v>
+        <v>2029</v>
       </c>
       <c r="B65" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="C65" t="s">
         <v>50</v>
@@ -4721,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="L65" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M65">
         <v>0</v>
@@ -4732,10 +4701,10 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="B66" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C66" t="s">
         <v>50</v>
@@ -4765,7 +4734,7 @@
         <v>0</v>
       </c>
       <c r="L66" t="s">
-        <v>137</v>
+        <v>169</v>
       </c>
       <c r="M66">
         <v>0</v>
@@ -4776,10 +4745,10 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="B67" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="C67" t="s">
         <v>50</v>
@@ -4809,7 +4778,7 @@
         <v>0</v>
       </c>
       <c r="L67" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="M67">
         <v>0</v>
@@ -4820,16 +4789,16 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="B68" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C68" t="s">
         <v>50</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="E68" t="s">
         <v>43</v>
@@ -4853,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="L68" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M68">
         <v>0</v>
@@ -4864,16 +4833,16 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69">
-        <v>2034</v>
+        <v>2033</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>172</v>
       </c>
       <c r="C69" t="s">
         <v>50</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="E69" t="s">
         <v>43</v>
@@ -4881,8 +4850,8 @@
       <c r="F69" t="s">
         <v>32</v>
       </c>
-      <c r="G69" t="s">
-        <v>54</v>
+      <c r="G69">
+        <v>0</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>33</v>
@@ -4897,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="L69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="M69">
         <v>0</v>
@@ -4908,16 +4877,16 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70">
-        <v>10001</v>
+        <v>2034</v>
       </c>
       <c r="B70" t="s">
-        <v>175</v>
-      </c>
-      <c r="C70">
-        <v>0</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="C70" t="s">
+        <v>50</v>
+      </c>
+      <c r="D70" t="s">
+        <v>97</v>
       </c>
       <c r="E70" t="s">
         <v>43</v>
@@ -4926,27 +4895,71 @@
         <v>32</v>
       </c>
       <c r="G70" t="s">
+        <v>54</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>174</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71">
+        <v>10001</v>
+      </c>
+      <c r="B71" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>32</v>
+      </c>
+      <c r="G71" t="s">
         <v>99</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70" t="s">
+      <c r="H71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71" t="s">
         <v>176</v>
       </c>
-      <c r="M70">
+      <c r="M71">
         <v>100</v>
       </c>
-      <c r="N70">
+      <c r="N71">
         <v>100</v>
       </c>
     </row>
@@ -4959,21 +4972,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.875" customWidth="1"/>
-    <col min="2" max="2" width="41.25" customWidth="1"/>
-    <col min="3" max="4" width="19.875" customWidth="1"/>
+    <col min="1" max="1" width="9.87272727272727" customWidth="1"/>
+    <col min="2" max="2" width="41.2545454545455" customWidth="1"/>
+    <col min="3" max="4" width="19.8727272727273" customWidth="1"/>
     <col min="5" max="5" width="22.2" customWidth="1"/>
-    <col min="6" max="6" width="18.625" customWidth="1"/>
-    <col min="7" max="7" width="24.875" customWidth="1"/>
-    <col min="8" max="8" width="34.875" customWidth="1"/>
+    <col min="6" max="6" width="18.6272727272727" customWidth="1"/>
+    <col min="7" max="7" width="24.8727272727273" customWidth="1"/>
+    <col min="8" max="8" width="34.8727272727273" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5054,38 +5067,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>0</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>33</v>
@@ -5103,73 +5090,73 @@
         <v>189</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1">
-        <v>99902</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1">
-        <v>0</v>
+      <c r="D6" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1">
-        <v>99903</v>
+        <v>99902</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>99</v>
+        <v>33</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1">
-        <v>99904</v>
+        <v>99903</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -5178,27 +5165,27 @@
         <v>0</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>201</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1">
-        <v>99905</v>
+        <v>99904</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E9" s="1">
-        <v>10001</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -5207,15 +5194,15 @@
         <v>189</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1">
-        <v>99906</v>
+        <v>99905</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>33</v>
@@ -5224,24 +5211,24 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1">
-        <v>99907</v>
+        <v>99906</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
@@ -5249,77 +5236,77 @@
       <c r="D11" s="1">
         <v>0</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>206</v>
+      <c r="E11" s="1">
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1">
+        <v>99907</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>99908</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6">
-        <v>20001</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>20001</v>
-      </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="6">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>33</v>
@@ -5327,25 +5314,25 @@
       <c r="D14" s="6">
         <v>0</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>206</v>
+      <c r="E14" s="6">
+        <v>20001</v>
       </c>
       <c r="F14" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>80</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="6">
-        <v>20003</v>
+        <v>20002</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>33</v>
@@ -5354,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F15" s="6">
         <v>1</v>
@@ -5363,15 +5350,15 @@
         <v>189</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="6">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>33</v>
@@ -5379,34 +5366,34 @@
       <c r="D16" s="6">
         <v>0</v>
       </c>
-      <c r="E16" s="6">
-        <v>20004</v>
+      <c r="E16" s="6" t="s">
+        <v>209</v>
       </c>
       <c r="F16" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="6">
-        <v>20005</v>
+        <v>20004</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>211</v>
+        <v>33</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
       </c>
       <c r="E17" s="6">
-        <v>0</v>
+        <v>20004</v>
       </c>
       <c r="F17" s="6">
         <v>0</v>
@@ -5415,15 +5402,15 @@
         <v>198</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>212</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="6">
-        <v>200051</v>
+        <v>20005</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>210</v>
@@ -5438,70 +5425,70 @@
         <v>0</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="6">
-        <v>20006</v>
+        <v>200051</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>213</v>
       </c>
       <c r="C19" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="6">
+        <v>20006</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>0</v>
-      </c>
-      <c r="G19" s="6" t="s">
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="H20" s="6" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="3">
-        <v>20007</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="3">
-        <v>20008</v>
+        <v>20007</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>33</v>
@@ -5509,8 +5496,8 @@
       <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>219</v>
+      <c r="E21" s="3">
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>0</v>
@@ -5519,15 +5506,15 @@
         <v>189</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="3">
-        <v>20009</v>
+        <v>20008</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>33</v>
@@ -5535,25 +5522,25 @@
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="3">
-        <v>20010</v>
+        <v>20009</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>33</v>
@@ -5571,21 +5558,21 @@
         <v>198</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="3">
-        <v>20011</v>
+        <v>20010</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>221</v>
+        <v>33</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -5594,122 +5581,122 @@
         <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="3">
-        <v>20012</v>
+        <v>20011</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>219</v>
+        <v>100</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E25" s="3">
+        <v>0</v>
       </c>
       <c r="F25" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>189</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="3">
+        <v>20012</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="3">
         <v>20014</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="C27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>20014</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H27" s="3" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="6">
-        <v>20015</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="6">
-        <v>20016</v>
+        <v>20015</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>222</v>
+        <v>100</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
       </c>
       <c r="F28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="6">
-        <v>20017</v>
+        <v>20016</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>33</v>
@@ -5721,70 +5708,70 @@
         <v>222</v>
       </c>
       <c r="F29" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>198</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="6">
-        <v>20018</v>
+        <v>20017</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
+        <v>33</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="F30" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="6">
-        <v>20019</v>
+        <v>20018</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0</v>
+        <v>223</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>211</v>
       </c>
       <c r="E31" s="6">
-        <v>20019</v>
+        <v>0</v>
       </c>
       <c r="F31" s="6">
         <v>0</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>224</v>
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="6">
-        <v>20020</v>
+        <v>20019</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>193</v>
@@ -5796,47 +5783,47 @@
         <v>0</v>
       </c>
       <c r="E32" s="6">
+        <v>20019</v>
+      </c>
+      <c r="F32" s="6">
+        <v>0</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="6">
         <v>20020</v>
       </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6" t="s">
+      <c r="B33" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>20020</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="H32" s="6" t="s">
+      <c r="H33" s="6" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>196</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>7</v>
-      </c>
-      <c r="H33" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>196</v>
@@ -5854,7 +5841,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H34" t="s">
         <v>225</v>
@@ -5862,7 +5849,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" t="s">
         <v>196</v>
@@ -5880,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H35" t="s">
         <v>225</v>
@@ -5888,7 +5875,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
         <v>196</v>
@@ -5914,7 +5901,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
         <v>196</v>
@@ -5932,7 +5919,7 @@
         <v>0</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H37" t="s">
         <v>225</v>
@@ -5940,7 +5927,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
         <v>196</v>
@@ -5958,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="G38">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H38" t="s">
         <v>225</v>
@@ -5966,7 +5953,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" t="s">
         <v>196</v>
@@ -5984,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H39" t="s">
         <v>225</v>
@@ -5992,7 +5979,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" t="s">
         <v>196</v>
@@ -6018,7 +6005,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>196</v>
@@ -6036,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H41" t="s">
         <v>225</v>
@@ -6044,7 +6031,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" t="s">
         <v>196</v>
@@ -6070,7 +6057,7 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" t="s">
         <v>196</v>
@@ -6096,7 +6083,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
         <v>196</v>
@@ -6114,7 +6101,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H44" t="s">
         <v>225</v>
@@ -6122,7 +6109,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" t="s">
         <v>196</v>
@@ -6140,7 +6127,7 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H45" t="s">
         <v>225</v>
@@ -6148,7 +6135,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" t="s">
         <v>196</v>
@@ -6174,7 +6161,7 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" t="s">
         <v>196</v>
@@ -6200,7 +6187,7 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" t="s">
         <v>196</v>
@@ -6218,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H48" t="s">
         <v>225</v>
@@ -6226,7 +6213,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
         <v>196</v>
@@ -6244,7 +6231,7 @@
         <v>0</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H49" t="s">
         <v>225</v>
@@ -6252,7 +6239,7 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
         <v>196</v>
@@ -6270,7 +6257,7 @@
         <v>0</v>
       </c>
       <c r="G50">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H50" t="s">
         <v>225</v>
@@ -6278,7 +6265,7 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
         <v>196</v>
@@ -6296,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H51" t="s">
         <v>225</v>
@@ -6304,7 +6291,7 @@
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" t="s">
         <v>196</v>
@@ -6330,7 +6317,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" t="s">
         <v>196</v>
@@ -6348,7 +6335,7 @@
         <v>0</v>
       </c>
       <c r="G53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="s">
         <v>225</v>
@@ -6356,7 +6343,7 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>196</v>
@@ -6374,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="G54">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H54" t="s">
         <v>225</v>
@@ -6382,7 +6369,7 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
         <v>196</v>
@@ -6400,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H55" t="s">
         <v>225</v>
@@ -6408,7 +6395,7 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
         <v>196</v>
@@ -6426,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="G56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
         <v>225</v>
@@ -6434,7 +6421,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
         <v>196</v>
@@ -6452,7 +6439,7 @@
         <v>0</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="s">
         <v>225</v>
@@ -6460,7 +6447,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" t="s">
         <v>196</v>
@@ -6486,7 +6473,7 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s">
         <v>196</v>
@@ -6512,7 +6499,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s">
         <v>196</v>
@@ -6538,7 +6525,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
         <v>196</v>
@@ -6564,7 +6551,7 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
         <v>196</v>
@@ -6590,7 +6577,7 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
         <v>196</v>
@@ -6616,7 +6603,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
         <v>196</v>
@@ -6642,7 +6629,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
         <v>196</v>
@@ -6668,7 +6655,7 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
         <v>196</v>
@@ -6694,7 +6681,7 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" t="s">
         <v>196</v>
@@ -6720,7 +6707,7 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" t="s">
         <v>196</v>
@@ -6746,7 +6733,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" t="s">
         <v>196</v>
@@ -6772,7 +6759,7 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>196</v>
@@ -6798,7 +6785,7 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" t="s">
         <v>196</v>
@@ -6824,7 +6811,7 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" t="s">
         <v>196</v>
@@ -6850,7 +6837,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" t="s">
         <v>196</v>
@@ -6876,7 +6863,7 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
         <v>196</v>
@@ -6902,7 +6889,7 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" t="s">
         <v>196</v>
@@ -6928,7 +6915,7 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" t="s">
         <v>196</v>
@@ -6954,7 +6941,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" t="s">
         <v>196</v>
@@ -6980,7 +6967,7 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" t="s">
         <v>196</v>
@@ -7006,7 +6993,7 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" t="s">
         <v>196</v>
@@ -7032,7 +7019,7 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" t="s">
         <v>196</v>
@@ -7058,7 +7045,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
         <v>196</v>
@@ -7076,9 +7063,35 @@
         <v>0</v>
       </c>
       <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>196</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
         <v>7</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H82" t="s">
         <v>225</v>
       </c>
     </row>
@@ -7091,21 +7104,21 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="2" max="2" width="37" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="33.75" customWidth="1"/>
-    <col min="6" max="6" width="24.625" customWidth="1"/>
-    <col min="7" max="7" width="22.125" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="16.6272727272727" customWidth="1"/>
+    <col min="4" max="4" width="18.6272727272727" customWidth="1"/>
+    <col min="5" max="5" width="33.7545454545455" customWidth="1"/>
+    <col min="6" max="6" width="24.6272727272727" customWidth="1"/>
+    <col min="7" max="7" width="22.1272727272727" customWidth="1"/>
+    <col min="8" max="8" width="16.7545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7186,113 +7199,87 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1">
-        <v>10001</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>239</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>235</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>237</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>10001</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="3">
-        <v>20001</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3">
-        <v>20004</v>
+        <v>20001</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
       </c>
       <c r="D7" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>237</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="3">
-        <v>20014</v>
+        <v>20004</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>235</v>
@@ -7306,48 +7293,48 @@
       <c r="E8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>246</v>
+      <c r="F8" s="3" t="s">
+        <v>244</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>237</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
+        <v>20014</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>121</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6">
-        <v>20019</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="6">
-        <v>20020</v>
+        <v>20019</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -7359,35 +7346,35 @@
         <v>33</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>237</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>140</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="A11" s="6">
+        <v>20020</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="C11">
-        <v>100</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>237</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -7396,13 +7383,13 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>239</v>
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>235</v>
       </c>
       <c r="C12">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -7416,19 +7403,19 @@
       <c r="G12" t="s">
         <v>237</v>
       </c>
-      <c r="H12" t="s">
-        <v>248</v>
+      <c r="H12" s="6" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>239</v>
       </c>
       <c r="C13">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -7443,18 +7430,18 @@
         <v>237</v>
       </c>
       <c r="H13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>235</v>
+        <v>4</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C14">
-        <v>20</v>
+        <v>-10</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -7469,18 +7456,18 @@
         <v>237</v>
       </c>
       <c r="H14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
         <v>235</v>
       </c>
       <c r="C15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -7495,18 +7482,18 @@
         <v>237</v>
       </c>
       <c r="H15" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>235</v>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -7521,18 +7508,18 @@
         <v>237</v>
       </c>
       <c r="H16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>239</v>
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>235</v>
       </c>
       <c r="C17">
-        <v>-30</v>
+        <v>30</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -7547,18 +7534,18 @@
         <v>237</v>
       </c>
       <c r="H17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>9</v>
-      </c>
-      <c r="B18" t="s">
-        <v>235</v>
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>239</v>
       </c>
       <c r="C18">
-        <v>20</v>
+        <v>-30</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -7573,18 +7560,18 @@
         <v>237</v>
       </c>
       <c r="H18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
         <v>235</v>
       </c>
       <c r="C19">
-        <v>-10</v>
+        <v>20</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -7599,18 +7586,18 @@
         <v>237</v>
       </c>
       <c r="H19" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
         <v>235</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>-10</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -7625,6 +7612,32 @@
         <v>237</v>
       </c>
       <c r="H20" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21">
+        <v>10</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>237</v>
+      </c>
+      <c r="H21" t="s">
         <v>252</v>
       </c>
     </row>
